--- a/Data/TestData/data.xlsx
+++ b/Data/TestData/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21911"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C3B93-F2AA-46EF-8400-2E878A58FAF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF7D57-2793-4FA6-AA4D-2EA638107D9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
